--- a/실무_엑셀_예제_파일/Chapter03/03-001.xlsx
+++ b/실무_엑셀_예제_파일/Chapter03/03-001.xlsx
@@ -1,34 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google 드라이브\@ 오빠두 실무엑셀 - 출판\@ 예제파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel\실무_엑셀_예제_파일\Chapter03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F931BDD-701D-4992-9130-18510B6F9A8A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9598BDA3-8F32-4501-B6E4-497BBEAEEBBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{29C833D3-051F-4E67-923B-E7C62930983B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{29C833D3-051F-4E67-923B-E7C62930983B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="181029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -309,13 +299,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="9">
     <numFmt numFmtId="176" formatCode="#,##0;;"/>
     <numFmt numFmtId="177" formatCode="0&quot;원&quot;"/>
     <numFmt numFmtId="178" formatCode="0&quot;개&quot;"/>
     <numFmt numFmtId="179" formatCode="#,##0&quot;원&quot;"/>
     <numFmt numFmtId="180" formatCode="#,##0,"/>
     <numFmt numFmtId="181" formatCode="#,##0,&quot;천&quot;&quot;원&quot;"/>
+    <numFmt numFmtId="182" formatCode="0;\(0\);0"/>
+    <numFmt numFmtId="183" formatCode="[Blue]0;[Red]\-0;0"/>
+    <numFmt numFmtId="184" formatCode="0;\-0;\-"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -521,23 +514,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -555,85 +545,91 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -952,57 +948,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D81E366-C1EC-4432-941D-424203ACB726}">
   <dimension ref="B1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13:K17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.69921875" customWidth="1"/>
-    <col min="4" max="4" width="8.796875" customWidth="1"/>
-    <col min="8" max="8" width="8.796875" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="14" t="s">
+    <row r="1" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:11" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-    </row>
-    <row r="3" spans="2:11" ht="5.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="4" t="s">
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+    </row>
+    <row r="3" spans="2:11" ht="5.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="4" spans="2:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1012,19 +1010,25 @@
       <c r="D5" s="1">
         <v>500</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1">
+        <f>C5*D5</f>
+        <v>5000</v>
+      </c>
       <c r="G5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="11">
         <v>10</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="10">
         <v>500</v>
       </c>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="J5" s="10">
+        <f>H5*I5</f>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1034,19 +1038,25 @@
       <c r="D6" s="1">
         <v>800</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1" t="e">
+        <f t="shared" ref="E6:E8" si="0">C6*D6</f>
+        <v>#VALUE!</v>
+      </c>
       <c r="G6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="11">
         <v>5</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="10">
         <v>800</v>
       </c>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="J6" s="10">
+        <f t="shared" ref="J6:J8" si="1">H6*I6</f>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
@@ -1056,244 +1066,256 @@
       <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="G7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="11">
         <v>8</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="10">
         <v>1300</v>
       </c>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="J7" s="10">
+        <f t="shared" si="1"/>
+        <v>10400</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="1">
         <v>12</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>16800</v>
+      </c>
       <c r="G8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="11">
         <v>12</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="10">
         <v>1400</v>
       </c>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="2:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="10" spans="2:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="14" t="s">
+      <c r="J8" s="10">
+        <f t="shared" si="1"/>
+        <v>16800</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="10" spans="2:11" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-    </row>
-    <row r="11" spans="2:11" ht="5.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="12" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="9" t="s">
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+    </row>
+    <row r="11" spans="2:11" ht="5.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="12" spans="2:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B12" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="I12" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="J12" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K12" s="10" t="s">
+      <c r="K12" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="36">
         <v>1500</v>
       </c>
       <c r="E13" t="s">
         <v>16</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="37">
         <v>1500</v>
       </c>
       <c r="I13" t="s">
         <v>23</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="38">
         <v>0</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="38">
         <v>1050</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="36">
         <v>-800</v>
       </c>
       <c r="E14" t="s">
         <v>17</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="37">
         <v>-800</v>
       </c>
       <c r="I14" t="s">
         <v>24</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="38">
         <v>870</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="38">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="36">
         <v>3200</v>
       </c>
       <c r="E15" t="s">
         <v>18</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="37">
         <v>3200</v>
       </c>
       <c r="I15" t="s">
         <v>25</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="38">
         <v>950</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="38">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="36">
         <v>-1000</v>
       </c>
       <c r="E16" t="s">
         <v>19</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="37">
         <v>0</v>
       </c>
       <c r="I16" t="s">
         <v>26</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="38">
         <v>1420</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="38">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="36">
         <v>-500</v>
       </c>
       <c r="E17" t="s">
         <v>20</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="37">
         <v>-500</v>
       </c>
       <c r="I17" t="s">
         <v>27</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="38">
         <v>0</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="38">
         <v>3300</v>
       </c>
     </row>
-    <row r="18" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="19" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="8" t="s">
+    <row r="18" spans="2:14" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="19" spans="2:14" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B19" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="6"/>
-      <c r="I19" s="6" t="s">
+      <c r="G19" s="5"/>
+      <c r="I19" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J19" s="6" t="s">
+      <c r="J19" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="14" t="s">
+    <row r="21" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-    </row>
-    <row r="22" spans="2:14" ht="6.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="23" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="15" t="s">
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+    </row>
+    <row r="22" spans="2:14" ht="6.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="23" spans="2:14" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B23" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
       <c r="H23" s="22" t="s">
         <v>59</v>
       </c>
       <c r="I23" s="22"/>
-      <c r="J23" s="9" t="s">
+      <c r="J23" s="8" t="s">
         <v>60</v>
       </c>
       <c r="K23" s="22" t="s">
@@ -1303,200 +1325,199 @@
       <c r="M23" s="22"/>
       <c r="N23" s="22"/>
     </row>
-    <row r="24" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="17">
+    <row r="24" spans="2:14" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B24" s="13">
         <v>0</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="H24" s="27">
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="H24" s="28">
         <v>0</v>
       </c>
-      <c r="I24" s="27"/>
-      <c r="J24" s="28">
+      <c r="I24" s="28"/>
+      <c r="J24" s="18">
         <v>1000</v>
       </c>
-      <c r="K24" s="29" t="s">
+      <c r="K24" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-    </row>
-    <row r="25" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="19" t="s">
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+    </row>
+    <row r="25" spans="2:14" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B25" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="H25" s="33" t="s">
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="H25" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="I25" s="34"/>
-      <c r="J25" s="35">
+      <c r="I25" s="30"/>
+      <c r="J25" s="20">
         <v>1000</v>
       </c>
-      <c r="K25" s="36" t="s">
+      <c r="K25" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="37"/>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B26" s="19" t="s">
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="25"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B26" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="H26" s="30" t="s">
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="H26" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="I26" s="30"/>
-      <c r="J26" s="31">
+      <c r="I26" s="31"/>
+      <c r="J26" s="19">
         <v>1000</v>
       </c>
-      <c r="K26" s="32" t="s">
+      <c r="K26" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="32"/>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B27" s="19" t="s">
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B27" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="H27" s="24" t="s">
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="H27" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="I27" s="24"/>
-      <c r="J27" s="25">
+      <c r="I27" s="32"/>
+      <c r="J27" s="16">
         <v>1000</v>
       </c>
-      <c r="K27" s="23" t="s">
+      <c r="K27" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23"/>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B28" s="19" t="s">
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B28" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="H28" s="24" t="s">
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="H28" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="I28" s="24"/>
-      <c r="J28" s="26">
+      <c r="I28" s="32"/>
+      <c r="J28" s="17">
         <v>1000</v>
       </c>
-      <c r="K28" s="23" t="s">
+      <c r="K28" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B29" s="19" t="s">
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B29" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B30" s="19" t="s">
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B30" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B31" s="21" t="s">
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B31" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B32" s="19" t="s">
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B32" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B33" s="19" t="s">
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B33" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B34" s="19" t="s">
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B34" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B10:J10"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="C23:F23"/>
     <mergeCell ref="C34:F34"/>
     <mergeCell ref="H23:I23"/>
     <mergeCell ref="H24:I24"/>
@@ -1513,11 +1534,12 @@
     <mergeCell ref="C25:F25"/>
     <mergeCell ref="C26:F26"/>
     <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B10:J10"/>
-    <mergeCell ref="B21:J21"/>
-    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="K27:N27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
